--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -70,127 +64,121 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -548,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -667,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,31 +673,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L4">
+        <v>55</v>
+      </c>
+      <c r="M4">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L4">
-        <v>17</v>
-      </c>
-      <c r="M4">
-        <v>17</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -767,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7077922077922078</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4761904761904762</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -867,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4166666666666667</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>417</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3928571428571428</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3562231759656652</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C10">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,195 +973,123 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L10">
+        <v>23</v>
+      </c>
+      <c r="M10">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.796875</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>102</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K10">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L10">
-        <v>43</v>
-      </c>
-      <c r="M10">
-        <v>43</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C11">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K13">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L13">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>43</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>45</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>95</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8035714285714286</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,21 +1127,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1237,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1263,21 +1179,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1289,21 +1205,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.71875</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1315,21 +1231,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6712328767123288</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1341,21 +1257,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1372,16 +1288,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1393,21 +1309,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6410256410256411</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1419,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1445,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6056338028169014</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1471,21 +1387,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5909090909090909</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1497,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1523,21 +1439,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5862068965517241</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1549,21 +1465,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5789473684210527</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1575,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5333333333333333</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1601,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5116279069767442</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L31">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1627,21 +1543,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1653,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1679,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4930555555555556</v>
+        <v>0.3640167364016736</v>
       </c>
       <c r="L34">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="M34">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1705,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4857142857142857</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1731,21 +1647,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4347826086956522</v>
+        <v>0.34375</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1757,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.4</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1783,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>872</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.34375</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1809,85 +1725,59 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>880</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.2702702702702703</v>
+        <v>0.01493930905695612</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.2631578947368421</v>
+        <v>0.009664948453608248</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="L41">
-        <v>12</v>
-      </c>
-      <c r="M41">
-        <v>12</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>414</v>
+        <v>3074</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,12 @@
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,96 +64,96 @@
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -169,10 +163,7 @@
     <t>sure</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>online</t>
   </si>
   <si>
     <t>19</t>
@@ -536,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7647058823529411</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.9615384615384616</v>
@@ -655,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6027397260273972</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,28 +796,28 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2533333333333334</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>155</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>56</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K7">
         <v>0.8787878787878788</v>
@@ -855,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1918604651162791</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,145 +864,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
-        <v>0.8660714285714286</v>
-      </c>
-      <c r="L8">
-        <v>97</v>
-      </c>
-      <c r="M8">
-        <v>97</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>154</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L9">
-        <v>70</v>
-      </c>
-      <c r="M9">
-        <v>70</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1610738255033557</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>125</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1023,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1049,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7666666666666667</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1075,47 +1018,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L14">
+        <v>92</v>
+      </c>
+      <c r="M14">
+        <v>92</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>28</v>
-      </c>
-      <c r="K14">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L14">
-        <v>39</v>
-      </c>
-      <c r="M14">
-        <v>39</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1127,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1153,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7413793103448276</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1179,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7358490566037735</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1205,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1231,12 +1174,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.7037037037037037</v>
@@ -1262,16 +1205,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1283,12 +1226,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.6507936507936508</v>
@@ -1314,16 +1257,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6276595744680851</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1335,15 +1278,15 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
         <v>29</v>
@@ -1361,12 +1304,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.6</v>
@@ -1392,16 +1335,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5833333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1413,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5221932114882507</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L27">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1439,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>183</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4764705882352941</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L28">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="M28">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1465,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4520547945205479</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1491,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4382022471910113</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1517,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4222222222222222</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1543,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4153846153846154</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1569,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4135593220338983</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L33">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1595,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3640167364016736</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L34">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M34">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1621,47 +1564,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>29</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>49</v>
-      </c>
-      <c r="K35">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L35">
-        <v>27</v>
-      </c>
-      <c r="M35">
-        <v>27</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1673,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.02460850111856823</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1699,85 +1642,59 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>872</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.02330743618201998</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>880</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.01493930905695612</v>
+        <v>0.009011908593498551</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40">
-        <v>0.009664948453608248</v>
-      </c>
-      <c r="L40">
-        <v>30</v>
-      </c>
-      <c r="M40">
-        <v>33</v>
-      </c>
-      <c r="N40">
-        <v>0.91</v>
-      </c>
-      <c r="O40">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3074</v>
+        <v>3079</v>
       </c>
     </row>
   </sheetData>
